--- a/socUpdate.xlsx
+++ b/socUpdate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Celebrating art-work on Twitter</t>
   </si>
   <si>
-    <t>Art-work to the world</t>
-  </si>
-  <si>
-    <t>I am here on twitter to test"C:\Users\decadev\Downloads\2.jpg"</t>
-  </si>
-  <si>
     <t>Still on the project</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
   </si>
   <si>
     <t>C:\Users\decadev\Downloads\1.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\decadev\Downloads\3.jpg</t>
   </si>
   <si>
     <t>C:\Users\decadev\Downloads\2.jpg</t>
@@ -418,7 +409,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +436,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -454,12 +445,12 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -468,12 +459,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -482,21 +473,21 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/socUpdate.xlsx
+++ b/socUpdate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5328"/>
   </bookViews>
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="in" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -30,16 +31,25 @@
     <t>MEDIA PATH</t>
   </si>
   <si>
+    <t>STATUS</t>
+  </si>
+  <si>
     <t>Testing my automation skill</t>
   </si>
   <si>
     <t>This is me testing my automation skill on twitter…</t>
   </si>
   <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Celebrating art-work on Twitter</t>
+  </si>
+  <si>
     <t>I am testing posting</t>
   </si>
   <si>
-    <t>Celebrating art-work on Twitter</t>
+    <t>C:\Users\decadev\Downloads\1.jpg</t>
   </si>
   <si>
     <t>Still on the project</t>
@@ -48,16 +58,16 @@
     <t>I will be through in a jiffy</t>
   </si>
   <si>
-    <t>C:\Users\decadev\Downloads\1.jpg</t>
-  </si>
-  <si>
     <t>C:\Users\decadev\Downloads\2.jpg</t>
   </si>
   <si>
-    <t>C:\Users\decadev\Downloads\mbappe.jpg</t>
-  </si>
-  <si>
-    <t>19/07/2023</t>
+    <t>C:\Users\decadev\Downloads\4.jpg</t>
+  </si>
+  <si>
+    <t>NOT DONE</t>
+  </si>
+  <si>
+    <t>22/07/2023</t>
   </si>
 </sst>
 </file>
@@ -406,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +430,7 @@
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,61 +443,64 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -518,4 +531,22 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>